--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_19_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_19_20.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>606338.0632684208</v>
+        <v>692602.8079882436</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12448117.04013147</v>
+        <v>12496676.879328</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6543877.565451912</v>
+        <v>7127088.055546223</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9360480.73954436</v>
+        <v>9073746.424316285</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>165.1725371760945</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199748</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>39.70122005611962</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,16 +737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>13.45644170423123</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -753,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>32.54455978945972</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -789,10 +791,10 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -801,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
     </row>
     <row r="4">
@@ -820,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,16 +831,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>10.30387564211102</v>
+        <v>29.00708539155832</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553087</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,22 +861,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845829</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V4" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -941,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>6.396723986041094</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>158.7758131900532</v>
       </c>
       <c r="T5" t="n">
-        <v>208.5707722909361</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>295.4683221479534</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,16 +974,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -990,10 +992,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>95.08928567761471</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>28.27158985086024</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1026,22 +1028,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>86.66287539172568</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8245826357508</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>165.1725371760942</v>
       </c>
     </row>
     <row r="7">
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1060,19 +1062,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5025842422711</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H7" t="n">
-        <v>148.9939868380619</v>
+        <v>115.8347674107863</v>
       </c>
       <c r="I7" t="n">
-        <v>110.690374524087</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>3.343082173845843</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>165.1859059008798</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,13 +1144,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>76.8800183669171</v>
+        <v>80.9207982678533</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>130.8133087092505</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.3343964518635</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269626</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>26.17372043046394</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838588</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>192.0665623188214</v>
+        <v>4.683061522916489</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1275,7 +1277,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>105.5027752869404</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>37.31199796746762</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1433,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>201.6622187863191</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>132.9870153438515</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1546,7 +1548,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1588,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>203.1977700471489</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1604,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1622,7 +1624,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>61.26635328439217</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>205.112782206739</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>74.75769145492377</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1783,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>74.7576914549238</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1841,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>75.45713216103881</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>201.66221878632</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2008,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2056,16 +2058,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>56.91071586901123</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>19.58945082857547</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2078,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>77.77477680360965</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>57.92518451681179</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2175,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>63.26492205174068</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2251,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>104.5702261485539</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2318,10 +2320,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2330,13 +2332,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>327.3924797383717</v>
       </c>
       <c r="H23" t="n">
-        <v>79.0318776430356</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2375,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2488,13 +2490,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>10.20389322926706</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2567,13 +2569,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>103.6708604288263</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>172.7311630475649</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>24.01006515217614</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2725,7 +2727,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>71.67037196991727</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2764,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2801,16 +2803,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>205.0911172157881</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>328.0423659626478</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2889,7 +2891,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2962,13 +2964,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>31.95340287568535</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3010,10 +3012,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>87.83762944231138</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3026,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>38.18739105194234</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3041,13 +3043,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>229.796569204138</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3083,10 +3085,10 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3095,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3187,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>137.3439741618277</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,16 +3237,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>234.8758626236981</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3253,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3278,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,19 +3319,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>58.92805047992164</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>121.0107198513709</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>140.5010290442968</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>18.67036458428357</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3490,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3503,25 +3505,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>229.796569204138</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>239.4415781650979</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3600,7 +3602,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3667,7 +3669,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>77.31354443380542</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3715,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>217.0914199928484</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3743,19 +3745,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>186.8250998946398</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>229.7965692041371</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3904,7 +3906,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>70.93055469222921</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3916,7 +3918,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>20.84901245549811</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3983,13 +3985,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>126.7498226612772</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>251.2852794514161</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4025,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>47.46616726055743</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>79.49505480544777</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4198,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7407511348962</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="C2" t="n">
-        <v>141.7407511348962</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="D2" t="n">
-        <v>141.7407511348962</v>
+        <v>393.841617006275</v>
       </c>
       <c r="E2" t="n">
-        <v>141.7407511348962</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="F2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678512</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058984</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L2" t="n">
-        <v>191.874309407919</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644759</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123831</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O2" t="n">
         <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020261</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652791</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652791</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S2" t="n">
-        <v>710.0001061843502</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T2" t="n">
-        <v>710.0001061843502</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="U2" t="n">
-        <v>520.5803211678656</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="V2" t="n">
-        <v>520.5803211678656</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="W2" t="n">
-        <v>520.5803211678656</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="X2" t="n">
-        <v>331.1605361513809</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="Y2" t="n">
-        <v>141.7407511348962</v>
+        <v>750.1023486652795</v>
       </c>
     </row>
     <row r="3">
@@ -4383,34 +4385,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>371.2627786323098</v>
+        <v>203.0474416122419</v>
       </c>
       <c r="C3" t="n">
-        <v>196.8097493511828</v>
+        <v>28.59441233111491</v>
       </c>
       <c r="D3" t="n">
-        <v>47.87533968993156</v>
+        <v>28.59441233111491</v>
       </c>
       <c r="E3" t="n">
-        <v>47.87533968993156</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F3" t="n">
-        <v>47.87533968993156</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G3" t="n">
-        <v>47.87533968993156</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024219</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
         <v>183.5548280772649</v>
@@ -4419,40 +4421,40 @@
         <v>338.7690911140243</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546599</v>
+        <v>512.50005875466</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476345</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017057</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652791</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652791</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652791</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T3" t="n">
-        <v>560.6825636487945</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="U3" t="n">
-        <v>371.2627786323098</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="V3" t="n">
-        <v>371.2627786323098</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="W3" t="n">
-        <v>371.2627786323098</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="X3" t="n">
-        <v>371.2627786323098</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="Y3" t="n">
-        <v>371.2627786323098</v>
+        <v>371.26277863231</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>367.8859279516575</v>
+        <v>44.30213322740491</v>
       </c>
       <c r="C4" t="n">
-        <v>367.8859279516575</v>
+        <v>44.30213322740491</v>
       </c>
       <c r="D4" t="n">
-        <v>217.7692885393218</v>
+        <v>44.30213322740491</v>
       </c>
       <c r="E4" t="n">
-        <v>217.7692885393218</v>
+        <v>44.30213322740491</v>
       </c>
       <c r="F4" t="n">
-        <v>217.7692885393218</v>
+        <v>44.30213322740491</v>
       </c>
       <c r="G4" t="n">
-        <v>49.08046510223679</v>
+        <v>44.30213322740491</v>
       </c>
       <c r="H4" t="n">
-        <v>49.08046510223679</v>
+        <v>44.30213322740491</v>
       </c>
       <c r="I4" t="n">
-        <v>38.67250990818525</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
-        <v>100.3335179349383</v>
+        <v>187.8896250884407</v>
       </c>
       <c r="M4" t="n">
-        <v>285.9838492295949</v>
+        <v>373.5399563830973</v>
       </c>
       <c r="N4" t="n">
-        <v>471.6341805242514</v>
+        <v>559.190287677754</v>
       </c>
       <c r="O4" t="n">
-        <v>634.3723839608015</v>
+        <v>721.9284911143042</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652791</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="Q4" t="n">
-        <v>746.7254979846268</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="R4" t="n">
-        <v>746.7254979846268</v>
+        <v>612.5614882768591</v>
       </c>
       <c r="S4" t="n">
-        <v>557.3057129681422</v>
+        <v>423.1417032603744</v>
       </c>
       <c r="T4" t="n">
-        <v>557.3057129681422</v>
+        <v>233.7219182438896</v>
       </c>
       <c r="U4" t="n">
-        <v>557.3057129681422</v>
+        <v>44.30213322740491</v>
       </c>
       <c r="V4" t="n">
-        <v>367.8859279516575</v>
+        <v>44.30213322740491</v>
       </c>
       <c r="W4" t="n">
-        <v>367.8859279516575</v>
+        <v>44.30213322740491</v>
       </c>
       <c r="X4" t="n">
-        <v>367.8859279516575</v>
+        <v>44.30213322740491</v>
       </c>
       <c r="Y4" t="n">
-        <v>367.8859279516575</v>
+        <v>44.30213322740491</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>784.7905295085466</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="C5" t="n">
-        <v>784.7905295085466</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="D5" t="n">
-        <v>426.5248309017961</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="E5" t="n">
-        <v>40.73657830355187</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="F5" t="n">
-        <v>40.73657830355187</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="G5" t="n">
-        <v>40.73657830355187</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H5" t="n">
-        <v>40.73657830355187</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I5" t="n">
-        <v>40.73657830355187</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J5" t="n">
-        <v>140.3063411473631</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K5" t="n">
-        <v>340.2741230978828</v>
+        <v>80.81213159058962</v>
       </c>
       <c r="L5" t="n">
-        <v>625.2536008262787</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M5" t="n">
-        <v>974.0176169100281</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N5" t="n">
-        <v>1333.038807774398</v>
+        <v>509.4952041123825</v>
       </c>
       <c r="O5" t="n">
-        <v>1658.717076417799</v>
+        <v>649.4845259985575</v>
       </c>
       <c r="P5" t="n">
-        <v>1902.174943012943</v>
+        <v>734.4611726020256</v>
       </c>
       <c r="Q5" t="n">
-        <v>2036.828915177593</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R5" t="n">
-        <v>2036.828915177593</v>
+        <v>743.6410113056411</v>
       </c>
       <c r="S5" t="n">
-        <v>2036.828915177593</v>
+        <v>583.2614020227591</v>
       </c>
       <c r="T5" t="n">
-        <v>1826.151367408971</v>
+        <v>583.2614020227591</v>
       </c>
       <c r="U5" t="n">
-        <v>1826.151367408971</v>
+        <v>583.2614020227591</v>
       </c>
       <c r="V5" t="n">
-        <v>1527.698516754472</v>
+        <v>583.2614020227591</v>
       </c>
       <c r="W5" t="n">
-        <v>1174.929861484358</v>
+        <v>583.2614020227591</v>
       </c>
       <c r="X5" t="n">
-        <v>1174.929861484358</v>
+        <v>393.8416170062745</v>
       </c>
       <c r="Y5" t="n">
-        <v>784.7905295085466</v>
+        <v>393.8416170062745</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>647.9684172296431</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="C6" t="n">
-        <v>473.5153879485161</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="D6" t="n">
-        <v>324.5809782872649</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="E6" t="n">
-        <v>165.3435232818094</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="F6" t="n">
-        <v>165.3435232818094</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="G6" t="n">
-        <v>165.3435232818094</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H6" t="n">
-        <v>69.29373976906726</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I6" t="n">
-        <v>40.73657830355187</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J6" t="n">
-        <v>175.7487119423571</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K6" t="n">
-        <v>584.919813537763</v>
+        <v>67.13418877024202</v>
       </c>
       <c r="L6" t="n">
-        <v>829.3733089193872</v>
+        <v>183.5548280772646</v>
       </c>
       <c r="M6" t="n">
-        <v>1133.995876075523</v>
+        <v>338.769091114024</v>
       </c>
       <c r="N6" t="n">
-        <v>1461.089541067291</v>
+        <v>512.5000587546596</v>
       </c>
       <c r="O6" t="n">
-        <v>1738.096546401633</v>
+        <v>649.210157847634</v>
       </c>
       <c r="P6" t="n">
-        <v>1941.086023308143</v>
+        <v>739.5989987017052</v>
       </c>
       <c r="Q6" t="n">
-        <v>2026.859916513717</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R6" t="n">
-        <v>2036.828915177593</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="S6" t="n">
-        <v>2036.828915177593</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="T6" t="n">
-        <v>1949.290657206153</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="U6" t="n">
-        <v>1721.185018180142</v>
+        <v>560.682563648794</v>
       </c>
       <c r="V6" t="n">
-        <v>1486.032909948399</v>
+        <v>560.682563648794</v>
       </c>
       <c r="W6" t="n">
-        <v>1231.795553220198</v>
+        <v>371.2627786323095</v>
       </c>
       <c r="X6" t="n">
-        <v>1023.944053014665</v>
+        <v>181.842993615825</v>
       </c>
       <c r="Y6" t="n">
-        <v>816.1837542497112</v>
+        <v>15.00204697330557</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1085.084305970987</v>
+        <v>746.7254979846261</v>
       </c>
       <c r="C7" t="n">
-        <v>916.14812304308</v>
+        <v>577.7893150567193</v>
       </c>
       <c r="D7" t="n">
-        <v>766.0314836307442</v>
+        <v>427.6726756443835</v>
       </c>
       <c r="E7" t="n">
-        <v>618.1183900483511</v>
+        <v>427.6726756443835</v>
       </c>
       <c r="F7" t="n">
-        <v>471.2284425504407</v>
+        <v>427.6726756443835</v>
       </c>
       <c r="G7" t="n">
-        <v>303.0440140228942</v>
+        <v>258.9838522072985</v>
       </c>
       <c r="H7" t="n">
-        <v>152.5450374187913</v>
+        <v>141.9790366408477</v>
       </c>
       <c r="I7" t="n">
-        <v>40.73657830355187</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J7" t="n">
-        <v>52.48822935536992</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K7" t="n">
-        <v>201.6366387116525</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="L7" t="n">
-        <v>448.021687290565</v>
+        <v>187.8896250884405</v>
       </c>
       <c r="M7" t="n">
-        <v>718.1892983786042</v>
+        <v>373.539956383097</v>
       </c>
       <c r="N7" t="n">
-        <v>987.3675439511253</v>
+        <v>559.1902876777534</v>
       </c>
       <c r="O7" t="n">
-        <v>1219.980925984399</v>
+        <v>721.9284911143035</v>
       </c>
       <c r="P7" t="n">
-        <v>1395.501177288491</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="Q7" t="n">
-        <v>1433.587221206156</v>
+        <v>746.7254979846261</v>
       </c>
       <c r="R7" t="n">
-        <v>1433.587221206156</v>
+        <v>746.7254979846261</v>
       </c>
       <c r="S7" t="n">
-        <v>1433.587221206156</v>
+        <v>746.7254979846261</v>
       </c>
       <c r="T7" t="n">
-        <v>1433.587221206156</v>
+        <v>746.7254979846261</v>
       </c>
       <c r="U7" t="n">
-        <v>1433.587221206156</v>
+        <v>746.7254979846261</v>
       </c>
       <c r="V7" t="n">
-        <v>1433.587221206156</v>
+        <v>746.7254979846261</v>
       </c>
       <c r="W7" t="n">
-        <v>1433.587221206156</v>
+        <v>746.7254979846261</v>
       </c>
       <c r="X7" t="n">
-        <v>1433.587221206156</v>
+        <v>746.7254979846261</v>
       </c>
       <c r="Y7" t="n">
-        <v>1266.732770801226</v>
+        <v>746.7254979846261</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1217.629781995563</v>
+        <v>125.1073766066318</v>
       </c>
       <c r="C8" t="n">
-        <v>848.6672650551511</v>
+        <v>125.1073766066318</v>
       </c>
       <c r="D8" t="n">
-        <v>848.6672650551511</v>
+        <v>125.1073766066318</v>
       </c>
       <c r="E8" t="n">
-        <v>848.6672650551511</v>
+        <v>125.1073766066318</v>
       </c>
       <c r="F8" t="n">
-        <v>771.0106808461439</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G8" t="n">
-        <v>355.3059305704328</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816082</v>
+        <v>366.8168396232722</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>669.5878927711872</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1417.286540135167</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>1826.151173794699</v>
       </c>
       <c r="U8" t="n">
-        <v>2308.758267664335</v>
+        <v>1572.544009457208</v>
       </c>
       <c r="V8" t="n">
-        <v>1977.695380320764</v>
+        <v>1241.481122113637</v>
       </c>
       <c r="W8" t="n">
-        <v>1977.695380320764</v>
+        <v>888.7124668435233</v>
       </c>
       <c r="X8" t="n">
-        <v>1604.229622059685</v>
+        <v>515.2467085824435</v>
       </c>
       <c r="Y8" t="n">
-        <v>1604.229622059685</v>
+        <v>125.1073766066318</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.2981106200058</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8450813388788</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9106716776275</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6732166721721</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.138658699057</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.2626649141729</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>69.80729798300612</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>214.3836900926279</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735141</v>
+        <v>427.1868157183625</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049857</v>
+        <v>684.73795127835</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.104987164206</v>
+        <v>1004.644846746859</v>
       </c>
       <c r="N9" t="n">
-        <v>1605.390115761151</v>
+        <v>1347.427370741491</v>
       </c>
       <c r="O9" t="n">
-        <v>1937.460550937313</v>
+        <v>1638.786616996057</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568936</v>
+        <v>1853.295032556957</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2154.745546059888</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780096</v>
+        <v>2029.495166406371</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175226</v>
+        <v>2024.764801231708</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>1796.663211364972</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815395</v>
+        <v>1561.511103133229</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1307.273746405028</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.273746405028</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.513447640074</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>51.24678656800311</v>
+        <v>954.407539542579</v>
       </c>
       <c r="C10" t="n">
-        <v>51.24678656800311</v>
+        <v>916.7186527067531</v>
       </c>
       <c r="D10" t="n">
-        <v>51.24678656800311</v>
+        <v>766.6020132944174</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800311</v>
+        <v>618.6889197120242</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>471.7989722141139</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>303.6661428091322</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>153.6259293129249</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>58.69630920174229</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>213.7203003246704</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>467.6240706728881</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>745.7191196640783</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245823</v>
+        <v>1022.636306385108</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1262.397853152952</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1444.034594271086</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1486.355378693647</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1377.190882465729</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234359</v>
+        <v>1178.011396849955</v>
       </c>
       <c r="T10" t="n">
-        <v>1439.817372234359</v>
+        <v>954.407539542579</v>
       </c>
       <c r="U10" t="n">
-        <v>1150.699034738196</v>
+        <v>954.407539542579</v>
       </c>
       <c r="V10" t="n">
-        <v>896.0145465323095</v>
+        <v>954.407539542579</v>
       </c>
       <c r="W10" t="n">
-        <v>606.597376495349</v>
+        <v>954.407539542579</v>
       </c>
       <c r="X10" t="n">
-        <v>378.6078255973316</v>
+        <v>954.407539542579</v>
       </c>
       <c r="Y10" t="n">
-        <v>157.8152464538015</v>
+        <v>954.407539542579</v>
       </c>
     </row>
     <row r="11">
@@ -5036,10 +5038,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
         <v>589.2106210810557</v>
@@ -5057,10 +5059,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
@@ -5069,19 +5071,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.605821609171</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V11" t="n">
-        <v>3325.605821609171</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="W11" t="n">
-        <v>3325.605821609171</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="X11" t="n">
-        <v>3121.906610713899</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="Y11" t="n">
         <v>2731.767278738087</v>
@@ -5112,19 +5114,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5194,19 +5196,19 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
@@ -5218,22 +5220,22 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T13" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U13" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V13" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W13" t="n">
         <v>1722.044275313594</v>
@@ -5252,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2005.586939522201</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C14" t="n">
-        <v>1636.624422581789</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="D14" t="n">
-        <v>1278.358723975039</v>
+        <v>1340.243929312809</v>
       </c>
       <c r="E14" t="n">
-        <v>892.5704713767946</v>
+        <v>954.4556767145643</v>
       </c>
       <c r="F14" t="n">
-        <v>481.584566587187</v>
+        <v>543.4697719249568</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218345</v>
+        <v>128.3973217699533</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
@@ -5297,31 +5299,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609172</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U14" t="n">
-        <v>3325.605821609172</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V14" t="n">
-        <v>3325.605821609172</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W14" t="n">
-        <v>2972.837166339058</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X14" t="n">
-        <v>2599.371408077978</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y14" t="n">
-        <v>2392.186779586323</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064549</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228007</v>
@@ -5361,7 +5363,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5388,7 +5390,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>66.51211643218345</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="C16" t="n">
-        <v>66.51211643218345</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="D16" t="n">
-        <v>66.51211643218345</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="E16" t="n">
-        <v>66.51211643218345</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="F16" t="n">
-        <v>66.51211643218345</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218345</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218345</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
         <v>111.634748879119</v>
@@ -5489,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1232.150970528558</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C17" t="n">
-        <v>1232.150970528558</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D17" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E17" t="n">
         <v>1232.150970528558</v>
@@ -5510,13 +5512,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329465</v>
@@ -5531,34 +5533,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794326</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V17" t="n">
-        <v>2424.744041450755</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W17" t="n">
-        <v>2071.975386180641</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X17" t="n">
-        <v>1698.509627919561</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y17" t="n">
-        <v>1308.370295943749</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="18">
@@ -5583,13 +5585,13 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064549</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
         <v>160.1893859228007</v>
@@ -5598,7 +5600,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1091.613680441807</v>
+        <v>385.5649387724261</v>
       </c>
       <c r="C19" t="n">
-        <v>922.6774975139006</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D19" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E19" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F19" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G19" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H19" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5695,28 +5697,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S19" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T19" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U19" t="n">
-        <v>1513.842048484845</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V19" t="n">
-        <v>1513.842048484845</v>
+        <v>1077.423152783157</v>
       </c>
       <c r="W19" t="n">
-        <v>1513.842048484845</v>
+        <v>788.005982746196</v>
       </c>
       <c r="X19" t="n">
-        <v>1494.054724415577</v>
+        <v>788.005982746196</v>
       </c>
       <c r="Y19" t="n">
-        <v>1273.262145272047</v>
+        <v>567.2134036026658</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1179.52858457759</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C20" t="n">
-        <v>810.5660676371781</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D20" t="n">
-        <v>452.3003690304276</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E20" t="n">
-        <v>66.51211643218342</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F20" t="n">
-        <v>66.51211643218342</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J20" t="n">
         <v>255.3912473912088</v>
@@ -5768,34 +5770,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T20" t="n">
-        <v>3267.095534218452</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U20" t="n">
-        <v>3013.565057492288</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V20" t="n">
-        <v>2682.502170148718</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W20" t="n">
-        <v>2329.733514878603</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X20" t="n">
-        <v>1956.267756617523</v>
+        <v>2158.0178522615</v>
       </c>
       <c r="Y20" t="n">
-        <v>1566.128424641711</v>
+        <v>1767.878520285688</v>
       </c>
     </row>
     <row r="21">
@@ -5805,34 +5807,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D21" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
         <v>765.1517452158132</v>
@@ -5841,7 +5843,7 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
         <v>2096.912393410638</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>680.3679798527295</v>
+        <v>2489.924953962484</v>
       </c>
       <c r="C22" t="n">
-        <v>511.4317969248226</v>
+        <v>2320.988771034577</v>
       </c>
       <c r="D22" t="n">
-        <v>361.3151575124869</v>
+        <v>2170.872131622242</v>
       </c>
       <c r="E22" t="n">
-        <v>213.4020639300938</v>
+        <v>2022.959038039849</v>
       </c>
       <c r="F22" t="n">
-        <v>66.51211643218342</v>
+        <v>1876.069090541939</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218342</v>
+        <v>1708.366253916658</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218342</v>
+        <v>1562.149067134515</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J22" t="n">
-        <v>111.6347488791189</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279952</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L22" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760404</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N22" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O22" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P22" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088492</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R22" t="n">
-        <v>1927.294548088492</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S22" t="n">
-        <v>1927.294548088492</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T22" t="n">
-        <v>1705.527932658018</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U22" t="n">
-        <v>1416.425065783662</v>
+        <v>3036.502954734814</v>
       </c>
       <c r="V22" t="n">
-        <v>1416.425065783662</v>
+        <v>2781.818466528927</v>
       </c>
       <c r="W22" t="n">
-        <v>1310.798574724517</v>
+        <v>2781.818466528927</v>
       </c>
       <c r="X22" t="n">
-        <v>1082.809023826499</v>
+        <v>2553.828915630909</v>
       </c>
       <c r="Y22" t="n">
-        <v>862.0164446829692</v>
+        <v>2553.828915630909</v>
       </c>
     </row>
     <row r="23">
@@ -5963,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1712.341567565138</v>
+        <v>1491.569348694472</v>
       </c>
       <c r="C23" t="n">
-        <v>1343.379050624727</v>
+        <v>1491.569348694472</v>
       </c>
       <c r="D23" t="n">
-        <v>985.1133520179762</v>
+        <v>1491.569348694472</v>
       </c>
       <c r="E23" t="n">
-        <v>599.3250994197319</v>
+        <v>1105.781096096227</v>
       </c>
       <c r="F23" t="n">
-        <v>188.3391946301244</v>
+        <v>694.7951913066199</v>
       </c>
       <c r="G23" t="n">
-        <v>188.3391946301244</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H23" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
         <v>2120.555556060171</v>
@@ -6011,28 +6013,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T23" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U23" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V23" t="n">
-        <v>3215.315153136266</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W23" t="n">
-        <v>2862.546497866152</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X23" t="n">
-        <v>2489.080739605072</v>
+        <v>2268.308520734405</v>
       </c>
       <c r="Y23" t="n">
-        <v>2098.94140762926</v>
+        <v>1878.169188758593</v>
       </c>
     </row>
     <row r="24">
@@ -6063,16 +6065,16 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1091.613680441807</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C25" t="n">
-        <v>922.6774975139006</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D25" t="n">
-        <v>772.5608581015648</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E25" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F25" t="n">
-        <v>477.7578170212613</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G25" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H25" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J25" t="n">
         <v>111.634748879119</v>
@@ -6175,22 +6177,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T25" t="n">
-        <v>1927.294548088493</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U25" t="n">
-        <v>1927.294548088493</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V25" t="n">
-        <v>1927.294548088493</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W25" t="n">
-        <v>1722.044275313594</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X25" t="n">
-        <v>1494.054724415577</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="Y25" t="n">
-        <v>1273.262145272047</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="26">
@@ -6200,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1137.43386558517</v>
+        <v>1133.32083113111</v>
       </c>
       <c r="C26" t="n">
-        <v>1137.43386558517</v>
+        <v>764.3583141906979</v>
       </c>
       <c r="D26" t="n">
-        <v>779.1681669784198</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="E26" t="n">
-        <v>779.1681669784198</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="F26" t="n">
-        <v>779.1681669784198</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G26" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
         <v>2120.555556060171</v>
@@ -6248,28 +6250,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T26" t="n">
-        <v>3009.337405520488</v>
+        <v>3220.887780771972</v>
       </c>
       <c r="U26" t="n">
-        <v>2755.806928794324</v>
+        <v>2967.357304045808</v>
       </c>
       <c r="V26" t="n">
-        <v>2424.744041450754</v>
+        <v>2636.294416702237</v>
       </c>
       <c r="W26" t="n">
-        <v>2071.975386180639</v>
+        <v>2283.525761432123</v>
       </c>
       <c r="X26" t="n">
-        <v>1698.50962791956</v>
+        <v>1910.060003171043</v>
       </c>
       <c r="Y26" t="n">
-        <v>1524.033705649292</v>
+        <v>1519.920671195231</v>
       </c>
     </row>
     <row r="27">
@@ -6300,16 +6302,16 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2151.073568494536</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C28" t="n">
-        <v>1982.137385566629</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D28" t="n">
-        <v>1832.020746154294</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E28" t="n">
-        <v>1684.1076525719</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F28" t="n">
-        <v>1537.21770507399</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G28" t="n">
-        <v>1464.823389952862</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H28" t="n">
-        <v>1464.823389952862</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I28" t="n">
-        <v>1464.823389952862</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J28" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K28" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L28" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M28" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N28" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O28" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P28" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q28" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R28" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S28" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T28" t="n">
-        <v>3325.605821609171</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U28" t="n">
-        <v>3325.605821609171</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V28" t="n">
-        <v>3070.921333403284</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W28" t="n">
-        <v>2781.504163366324</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X28" t="n">
-        <v>2553.514612468306</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="Y28" t="n">
-        <v>2332.722033324776</v>
+        <v>872.3234075408147</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2141.34427854677</v>
+        <v>1921.870414581993</v>
       </c>
       <c r="C29" t="n">
-        <v>1772.381761606358</v>
+        <v>1552.907897641581</v>
       </c>
       <c r="D29" t="n">
-        <v>1414.116062999607</v>
+        <v>1194.642199034831</v>
       </c>
       <c r="E29" t="n">
-        <v>1028.327810401363</v>
+        <v>808.8539464365867</v>
       </c>
       <c r="F29" t="n">
-        <v>821.1650657389509</v>
+        <v>397.8680416469792</v>
       </c>
       <c r="G29" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T29" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U29" t="n">
-        <v>3215.315153136266</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V29" t="n">
-        <v>2884.252265792696</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="W29" t="n">
-        <v>2531.483610522581</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="X29" t="n">
-        <v>2531.483610522581</v>
+        <v>2698.609586621927</v>
       </c>
       <c r="Y29" t="n">
-        <v>2141.34427854677</v>
+        <v>2308.470254646115</v>
       </c>
     </row>
     <row r="30">
@@ -6516,31 +6518,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
         <v>398.4535849031479</v>
@@ -6573,7 +6575,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V30" t="n">
         <v>1779.608347199865</v>
@@ -6582,10 +6584,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2489.924953962486</v>
+        <v>712.6441443736238</v>
       </c>
       <c r="C31" t="n">
-        <v>2320.988771034579</v>
+        <v>543.7079614457169</v>
       </c>
       <c r="D31" t="n">
-        <v>2170.872131622243</v>
+        <v>393.5913220333812</v>
       </c>
       <c r="E31" t="n">
-        <v>2022.95903803985</v>
+        <v>245.6782284509881</v>
       </c>
       <c r="F31" t="n">
-        <v>1876.06909054194</v>
+        <v>98.7882809530777</v>
       </c>
       <c r="G31" t="n">
-        <v>1708.366253916659</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H31" t="n">
-        <v>1562.149067134517</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I31" t="n">
-        <v>1464.823389952862</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J31" t="n">
-        <v>1509.946022399798</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K31" t="n">
-        <v>1713.933205348674</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L31" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M31" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N31" t="n">
-        <v>2716.058426102584</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O31" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P31" t="n">
-        <v>3247.995525456657</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q31" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R31" t="n">
-        <v>3235.775364366699</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S31" t="n">
-        <v>3235.775364366699</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T31" t="n">
-        <v>3235.775364366699</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U31" t="n">
-        <v>3235.775364366699</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V31" t="n">
-        <v>2981.090876160813</v>
+        <v>1450.843444452132</v>
       </c>
       <c r="W31" t="n">
-        <v>2981.090876160813</v>
+        <v>1161.426274415171</v>
       </c>
       <c r="X31" t="n">
-        <v>2892.365997936256</v>
+        <v>933.436723517154</v>
       </c>
       <c r="Y31" t="n">
-        <v>2671.573418792726</v>
+        <v>712.6441443736238</v>
       </c>
     </row>
     <row r="32">
@@ -6674,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2014.778044008242</v>
+        <v>1822.632236038044</v>
       </c>
       <c r="C32" t="n">
-        <v>1976.204921733553</v>
+        <v>1453.669719097632</v>
       </c>
       <c r="D32" t="n">
-        <v>1617.939223126803</v>
+        <v>1095.404020490882</v>
       </c>
       <c r="E32" t="n">
-        <v>1232.150970528558</v>
+        <v>709.6157678926375</v>
       </c>
       <c r="F32" t="n">
-        <v>821.1650657389509</v>
+        <v>298.6298631030299</v>
       </c>
       <c r="G32" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H32" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O32" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R32" t="n">
         <v>3325.605821609171</v>
@@ -6731,19 +6733,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="U32" t="n">
-        <v>3072.075344883007</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V32" t="n">
-        <v>2741.012457539437</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W32" t="n">
-        <v>2388.243802269322</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X32" t="n">
-        <v>2014.778044008242</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y32" t="n">
-        <v>2014.778044008242</v>
+        <v>2209.232076102166</v>
       </c>
     </row>
     <row r="33">
@@ -6768,22 +6770,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>680.3679798527295</v>
+        <v>470.2719172712683</v>
       </c>
       <c r="C34" t="n">
-        <v>511.4317969248226</v>
+        <v>470.2719172712683</v>
       </c>
       <c r="D34" t="n">
-        <v>361.3151575124869</v>
+        <v>470.2719172712683</v>
       </c>
       <c r="E34" t="n">
-        <v>213.4020639300938</v>
+        <v>470.2719172712683</v>
       </c>
       <c r="F34" t="n">
-        <v>66.51211643218342</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G34" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H34" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J34" t="n">
         <v>111.634748879119</v>
@@ -6883,25 +6885,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S34" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T34" t="n">
-        <v>1837.464090846021</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U34" t="n">
-        <v>1837.464090846021</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V34" t="n">
-        <v>1600.215744761477</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W34" t="n">
-        <v>1310.798574724517</v>
+        <v>879.9099329995254</v>
       </c>
       <c r="X34" t="n">
-        <v>1082.809023826499</v>
+        <v>651.920382101508</v>
       </c>
       <c r="Y34" t="n">
-        <v>862.0164446829692</v>
+        <v>651.920382101508</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1632.511388127729</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C35" t="n">
-        <v>1263.548871187317</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D35" t="n">
-        <v>905.2831725805665</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E35" t="n">
-        <v>519.4949199823222</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F35" t="n">
-        <v>108.5090151927147</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
         <v>255.3912473912089</v>
@@ -6944,43 +6946,43 @@
         <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T35" t="n">
-        <v>3215.315153136267</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="U35" t="n">
-        <v>3215.315153136267</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="V35" t="n">
-        <v>2884.252265792697</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="W35" t="n">
-        <v>2531.483610522582</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X35" t="n">
-        <v>2409.250560167662</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y35" t="n">
-        <v>2019.11122819185</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7013,25 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
         <v>2407.411984886741</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>699.4849621798494</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="C37" t="n">
-        <v>530.5487792519425</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="D37" t="n">
-        <v>380.4321398396067</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="E37" t="n">
-        <v>380.4321398396067</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F37" t="n">
-        <v>380.4321398396067</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G37" t="n">
-        <v>212.7293032143257</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218345</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7120,25 +7122,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T37" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U37" t="n">
-        <v>1638.191681214136</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V37" t="n">
-        <v>1619.332727088597</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W37" t="n">
-        <v>1329.915557051637</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X37" t="n">
-        <v>1101.926006153619</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y37" t="n">
-        <v>881.1334270100891</v>
+        <v>452.6479724696239</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1590.416669135309</v>
+        <v>1822.632236038044</v>
       </c>
       <c r="C38" t="n">
-        <v>1590.416669135309</v>
+        <v>1453.669719097632</v>
       </c>
       <c r="D38" t="n">
-        <v>1232.150970528558</v>
+        <v>1095.404020490882</v>
       </c>
       <c r="E38" t="n">
-        <v>1232.150970528558</v>
+        <v>709.6157678926375</v>
       </c>
       <c r="F38" t="n">
-        <v>821.1650657389509</v>
+        <v>298.6298631030299</v>
       </c>
       <c r="G38" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T38" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U38" t="n">
-        <v>2961.784676410102</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V38" t="n">
-        <v>2719.924496445356</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W38" t="n">
-        <v>2367.155841175242</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X38" t="n">
-        <v>2367.155841175242</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y38" t="n">
-        <v>1977.016509199431</v>
+        <v>2209.232076102166</v>
       </c>
     </row>
     <row r="39">
@@ -7227,31 +7229,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031479</v>
@@ -7284,7 +7286,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7293,10 +7295,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>533.4780323548191</v>
+        <v>1861.970701620181</v>
       </c>
       <c r="C40" t="n">
-        <v>364.5418494269122</v>
+        <v>1693.034518692274</v>
       </c>
       <c r="D40" t="n">
-        <v>214.4252100145765</v>
+        <v>1542.917879279938</v>
       </c>
       <c r="E40" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="F40" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="G40" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J40" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L40" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N40" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O40" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P40" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q40" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S40" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T40" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U40" t="n">
-        <v>1708.010285469454</v>
+        <v>3036.502954734815</v>
       </c>
       <c r="V40" t="n">
-        <v>1453.325797263567</v>
+        <v>2781.818466528928</v>
       </c>
       <c r="W40" t="n">
-        <v>1163.908627226606</v>
+        <v>2492.401296491968</v>
       </c>
       <c r="X40" t="n">
-        <v>935.919076328589</v>
+        <v>2264.41174559395</v>
       </c>
       <c r="Y40" t="n">
-        <v>715.1264971850588</v>
+        <v>2043.61916645042</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>921.7704558796256</v>
+        <v>1822.632236038043</v>
       </c>
       <c r="C41" t="n">
-        <v>552.807938939214</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D41" t="n">
-        <v>364.0957168234162</v>
+        <v>1095.404020490881</v>
       </c>
       <c r="E41" t="n">
-        <v>364.0957168234162</v>
+        <v>709.6157678926365</v>
       </c>
       <c r="F41" t="n">
-        <v>364.0957168234162</v>
+        <v>298.629863103029</v>
       </c>
       <c r="G41" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H41" t="n">
         <v>66.51211643218342</v>
@@ -7409,16 +7411,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060171</v>
@@ -7436,25 +7438,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U41" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V41" t="n">
-        <v>2424.744041450753</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W41" t="n">
-        <v>2071.975386180639</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X41" t="n">
-        <v>1698.509627919559</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y41" t="n">
-        <v>1308.370295943747</v>
+        <v>2209.232076102165</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>936.5735814686077</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>846.0716871064751</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>827.0643955080127</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>920.7416649986303</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K42" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L42" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M42" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S42" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T42" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W42" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7552,16 +7554,16 @@
         <v>696.2947894608174</v>
       </c>
       <c r="E43" t="n">
-        <v>548.3816958784242</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F43" t="n">
-        <v>401.4917483805139</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G43" t="n">
-        <v>233.7889117552328</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H43" t="n">
-        <v>87.5717249730906</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I43" t="n">
         <v>66.51211643218342</v>
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>921.7704558796256</v>
+        <v>1844.338003964587</v>
       </c>
       <c r="C44" t="n">
-        <v>552.807938939214</v>
+        <v>1475.375487024176</v>
       </c>
       <c r="D44" t="n">
-        <v>194.5422403324635</v>
+        <v>1117.109788417425</v>
       </c>
       <c r="E44" t="n">
-        <v>66.51211643218342</v>
+        <v>731.321535819181</v>
       </c>
       <c r="F44" t="n">
-        <v>66.51211643218342</v>
+        <v>320.3356310295734</v>
       </c>
       <c r="G44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T44" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U44" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V44" t="n">
-        <v>2424.744041450753</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W44" t="n">
-        <v>2071.975386180639</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="X44" t="n">
-        <v>1698.509627919559</v>
+        <v>2621.077176004521</v>
       </c>
       <c r="Y44" t="n">
-        <v>1308.370295943747</v>
+        <v>2230.937844028709</v>
       </c>
     </row>
     <row r="45">
@@ -7716,22 +7718,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>873.2974438277585</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="C46" t="n">
-        <v>825.3518203322459</v>
+        <v>294.7232451715945</v>
       </c>
       <c r="D46" t="n">
-        <v>675.2351809199101</v>
+        <v>294.7232451715945</v>
       </c>
       <c r="E46" t="n">
-        <v>527.322087337517</v>
+        <v>146.8101515892014</v>
       </c>
       <c r="F46" t="n">
-        <v>380.4321398396066</v>
+        <v>146.8101515892014</v>
       </c>
       <c r="G46" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
         <v>111.634748879119</v>
@@ -7846,10 +7848,10 @@
         <v>1094.090022971289</v>
       </c>
       <c r="X46" t="n">
-        <v>1094.090022971289</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y46" t="n">
-        <v>873.2974438277585</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265844</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8137,10 +8139,10 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402857</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
-        <v>74.03418926528947</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
         <v>171.4142040457083</v>
@@ -8152,7 +8154,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>46.56605103777598</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8237,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>7.153582300174094</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>95.48172925978497</v>
+        <v>15.37922103265846</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8374,22 +8376,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>106.7437663446525</v>
+        <v>14.10430989402859</v>
       </c>
       <c r="L7" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M7" t="n">
-        <v>178.5096609094456</v>
+        <v>171.4142040457082</v>
       </c>
       <c r="N7" t="n">
-        <v>171.8177168444618</v>
+        <v>163.8604018711115</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P7" t="n">
-        <v>135.0065633140411</v>
+        <v>46.56605103777582</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8529,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>56.27460493020794</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>240.4465442417442</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -22544,19 +22546,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>217.5613044873861</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>167.1574544543631</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059419</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>219.3504585753916</v>
       </c>
       <c r="G2" t="n">
         <v>413.097833230058</v>
@@ -22565,7 +22567,7 @@
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,16 +22594,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.3652991436814</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S2" t="n">
-        <v>119.0745931339335</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>63.64367339871055</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22610,10 +22612,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>182.2055135121493</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897338</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22623,16 +22625,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>144.1886387511697</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -22641,10 +22643,10 @@
         <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>68.29719756128</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550659</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22671,16 +22673,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714241</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>7.884010625681469</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377115</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -22689,10 +22691,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715761</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>18.15710861098449</v>
       </c>
     </row>
     <row r="4">
@@ -22708,7 +22710,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -22717,16 +22719,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
         <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>115.4033441287557</v>
+        <v>96.70013437930834</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22750,19 +22752,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>19.25466862917645</v>
+        <v>19.25466862917636</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>36.19408632378023</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>98.73949432713042</v>
       </c>
       <c r="V4" t="n">
-        <v>64.61205615750822</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -22781,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>195.2082544971609</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>194.4047829059421</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.9846159221721</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H5" t="n">
-        <v>305.4930893518355</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I5" t="n">
-        <v>82.5540068577023</v>
+        <v>125.4713171199748</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22829,28 +22831,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>4.968575157640361</v>
       </c>
       <c r="S5" t="n">
-        <v>133.4083737866024</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0802031803995</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V5" t="n">
-        <v>32.28393632218149</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>182.2055135121494</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22860,28 +22862,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.568165595806</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.7788117555066</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22908,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>26.91122581714242</v>
       </c>
       <c r="S6" t="n">
-        <v>138.7067944022646</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T6" t="n">
-        <v>106.3459406257061</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>38.33818124377129</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>64.16939599459997</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>18.24739803715784</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>40.51015860121012</v>
       </c>
     </row>
     <row r="7">
@@ -22939,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -22948,22 +22950,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>37.5989034210333</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>23.43375830553089</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22987,16 +22989,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>110.3697346074945</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S7" t="n">
-        <v>198.0779304212288</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T7" t="n">
-        <v>221.5860830227523</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2378441683352</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23008,7 +23010,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.39874745121494</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -23018,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23030,16 +23032,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>329.9960273747943</v>
+        <v>325.9552474738582</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>78.16360657708302</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23069,10 +23071,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -23081,13 +23083,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23151,7 +23153,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>188.0801567878473</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -23163,7 +23165,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -23176,28 +23178,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>74.32920489499688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>129.9348231311602</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23224,28 +23226,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23309,10 +23311,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23321,10 +23323,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>168.06888189215</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>253.2509233122021</v>
       </c>
     </row>
     <row r="12">
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -23476,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>83.32522828944209</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23510,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>233.3414111029283</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -23543,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>181.1251564493146</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>105.0742887270135</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23671,7 +23673,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>21.59472895491429</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23729,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>307.2767095024417</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23780,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>168.0688818921491</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23896,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,16 +23946,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>195.2269274548168</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>206.1202045604617</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23966,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>304.9590648598709</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>145.9927856228084</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>116.5670581301966</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24139,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>181.9527721880371</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24206,10 +24208,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24218,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>83.52924591508179</v>
       </c>
       <c r="H23" t="n">
-        <v>215.5758867442848</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
         <v>203.9179701396201</v>
@@ -24263,7 +24265,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24376,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,22 +24417,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>208.3807601228277</v>
       </c>
     </row>
     <row r="26">
@@ -24443,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24455,13 +24457,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>100.2471097107939</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24509,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>213.5067756084887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>155.8219150297612</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24613,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>94.35543628911095</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24652,10 +24654,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24689,16 +24691,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>201.7849285259233</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>82.87935969080564</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24850,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>134.0724053833429</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -24898,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>137.8720259467258</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24914,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>327.0855007190652</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24929,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>181.1251564493155</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24971,10 +24973,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -24983,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25075,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>8.077073861103514</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,16 +25125,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>17.26178070012992</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25166,13 +25168,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25205,19 +25207,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>144.9899196596985</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>248.7203808270981</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>5.932933602272385</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,16 +25362,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>233.4672787395444</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25391,25 +25393,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>181.1251564493155</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>88.31068030503698</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25555,7 +25557,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>69.12041821276375</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25603,7 +25605,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>69.12041821276446</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25631,19 +25633,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>167.8579417260432</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>181.1251564493163</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -25676,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25792,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>75.50340795433996</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>75.50340795433999</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25871,13 +25873,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>255.1805474109846</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>159.6364462020373</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
@@ -25913,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26020,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>119.7806538380704</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>86.53075345358046</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>696877.7989242135</v>
+        <v>464372.2775194288</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>787807.6738230402</v>
+        <v>719481.5807333306</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>864081.682762536</v>
+        <v>864081.6827625361</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>864081.682762536</v>
+        <v>864081.6827625359</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>864081.6827625361</v>
+        <v>864081.6827625359</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>864081.6827625359</v>
+        <v>864081.6827625358</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>864081.682762536</v>
+        <v>864081.6827625358</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>864081.682762536</v>
+        <v>864081.6827625359</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>864081.682762536</v>
+        <v>864081.6827625359</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>864081.6827625359</v>
+        <v>864081.682762536</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>864081.6827625358</v>
+        <v>864081.6827625359</v>
       </c>
     </row>
   </sheetData>
@@ -26314,43 +26316,43 @@
         <v>180441.6164408226</v>
       </c>
       <c r="C2" t="n">
-        <v>270659.3263055648</v>
+        <v>180441.6164408225</v>
       </c>
       <c r="D2" t="n">
-        <v>305971.6304943087</v>
+        <v>279547.2423401895</v>
       </c>
       <c r="E2" t="n">
         <v>340997.0989709205</v>
       </c>
       <c r="F2" t="n">
+        <v>340997.0989709207</v>
+      </c>
+      <c r="G2" t="n">
+        <v>340997.0989709205</v>
+      </c>
+      <c r="H2" t="n">
+        <v>340997.0989709204</v>
+      </c>
+      <c r="I2" t="n">
+        <v>340997.0989709205</v>
+      </c>
+      <c r="J2" t="n">
+        <v>340997.0989709205</v>
+      </c>
+      <c r="K2" t="n">
+        <v>340997.0989709204</v>
+      </c>
+      <c r="L2" t="n">
+        <v>340997.0989709205</v>
+      </c>
+      <c r="M2" t="n">
         <v>340997.0989709206</v>
-      </c>
-      <c r="G2" t="n">
-        <v>340997.0989709207</v>
-      </c>
-      <c r="H2" t="n">
-        <v>340997.0989709206</v>
-      </c>
-      <c r="I2" t="n">
-        <v>340997.0989709204</v>
-      </c>
-      <c r="J2" t="n">
-        <v>340997.0989709207</v>
-      </c>
-      <c r="K2" t="n">
-        <v>340997.0989709205</v>
-      </c>
-      <c r="L2" t="n">
-        <v>340997.0989709206</v>
-      </c>
-      <c r="M2" t="n">
-        <v>340997.0989709205</v>
       </c>
       <c r="N2" t="n">
         <v>340997.0989709205</v>
       </c>
       <c r="O2" t="n">
-        <v>340997.0989709206</v>
+        <v>340997.0989709204</v>
       </c>
       <c r="P2" t="n">
         <v>340997.0989709205</v>
@@ -26363,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208452</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>356083.2629995316</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>133886.7361862362</v>
+        <v>371558.5249487663</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171904</v>
+        <v>276030.7457669101</v>
       </c>
       <c r="F3" t="n">
-        <v>3.100233243458205e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854457</v>
+        <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
-        <v>82790.56074253535</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>33250.48899822785</v>
+        <v>89743.37813127047</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341494</v>
+        <v>72091.35261608622</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,10 +26420,10 @@
         <v>13430.84951441317</v>
       </c>
       <c r="C4" t="n">
-        <v>20649.10691867754</v>
+        <v>13430.84951441317</v>
       </c>
       <c r="D4" t="n">
-        <v>23400.41285106792</v>
+        <v>21058.7668908512</v>
       </c>
       <c r="E4" t="n">
         <v>12210.17896214071</v>
@@ -26467,40 +26469,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161356</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
-        <v>82580.74337893917</v>
+        <v>56985.80041161354</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>85199.08185587224</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="I5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="J5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="K5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="L5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="M5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="N5" t="n">
         <v>74306.3405613933</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-481331.9360060493</v>
+        <v>-481331.9360060495</v>
       </c>
       <c r="C6" t="n">
-        <v>-188653.7869915836</v>
+        <v>110024.9665147961</v>
       </c>
       <c r="D6" t="n">
-        <v>55746.70901715988</v>
+        <v>-198269.1313553003</v>
       </c>
       <c r="E6" t="n">
-        <v>72407.59963019605</v>
+        <v>-21550.1663195236</v>
       </c>
       <c r="F6" t="n">
-        <v>254480.5794473863</v>
+        <v>254480.5794473867</v>
       </c>
       <c r="G6" t="n">
-        <v>254480.5794473867</v>
+        <v>254480.5794473866</v>
       </c>
       <c r="H6" t="n">
-        <v>254480.5794473868</v>
+        <v>254480.5794473864</v>
       </c>
       <c r="I6" t="n">
-        <v>254480.5794473863</v>
+        <v>254480.5794473866</v>
       </c>
       <c r="J6" t="n">
-        <v>205415.6347188421</v>
+        <v>205415.6347188419</v>
       </c>
       <c r="K6" t="n">
-        <v>171690.0187048512</v>
+        <v>254480.5794473864</v>
       </c>
       <c r="L6" t="n">
-        <v>221230.0904491587</v>
+        <v>164737.201316116</v>
       </c>
       <c r="M6" t="n">
-        <v>206928.3136539716</v>
+        <v>182389.2268313004</v>
       </c>
       <c r="N6" t="n">
         <v>254480.5794473865</v>
       </c>
       <c r="O6" t="n">
-        <v>254480.5794473866</v>
+        <v>254480.5794473864</v>
       </c>
       <c r="P6" t="n">
-        <v>254480.5794473866</v>
+        <v>254480.5794473865</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129043</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>825.3827462495302</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>853.710664537684</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26787,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>509.2072287943983</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="E4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="F4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="F4" t="n">
-        <v>831.4014554022931</v>
-      </c>
       <c r="G4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="L4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="L4" t="n">
-        <v>831.4014554022928</v>
-      </c>
       <c r="M4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26957,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129043</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>276.9128053366258</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>108.682145868009</v>
+        <v>305.2407236247798</v>
       </c>
       <c r="E3" t="n">
-        <v>155.7118084757589</v>
+        <v>236.0660360556143</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26978,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,19 +27011,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>321.6816416280786</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>131.3776033056405</v>
+        <v>354.5893695598436</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022538</v>
+        <v>289.2864986761297</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27036,13 +27038,13 @@
         <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>321.6816416280787</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>131.3776033056404</v>
+        <v>354.5893695598439</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022541</v>
+        <v>289.2864986761297</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,19 +27257,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>321.6816416280786</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>131.3776033056405</v>
+        <v>354.5893695598436</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022538</v>
+        <v>289.2864986761297</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077001</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954484</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043116</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
         <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528638</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672891</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470272</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470022</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622678</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244293</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151091</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
         <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619221</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924575</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
-        <v>0.17639234280616</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31121,46 +31123,46 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575675</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590849</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621736</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
         <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975328</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829653</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292672</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628871</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936714</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550072</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288819</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820367</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390159</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445815</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620012</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
-        <v>29.7432551563916</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.9254218111419</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765068</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>147.043892027699</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682165</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604414</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
         <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820537</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784856</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647908</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147602</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181393</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0539478630406136</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.318121592962933</v>
+        <v>2.204904285077</v>
       </c>
       <c r="H5" t="n">
-        <v>33.98171276393165</v>
+        <v>22.58097600954483</v>
       </c>
       <c r="I5" t="n">
-        <v>127.9218827127036</v>
+        <v>85.00457245043114</v>
       </c>
       <c r="J5" t="n">
-        <v>281.621422550738</v>
+        <v>187.1384950655542</v>
       </c>
       <c r="K5" t="n">
-        <v>422.077509580859</v>
+        <v>280.4720934528637</v>
       </c>
       <c r="L5" t="n">
-        <v>523.6244732814985</v>
+        <v>347.950432967289</v>
       </c>
       <c r="M5" t="n">
-        <v>582.633118160353</v>
+        <v>387.1618995470271</v>
       </c>
       <c r="N5" t="n">
-        <v>592.060731136359</v>
+        <v>393.4265838470022</v>
       </c>
       <c r="O5" t="n">
-        <v>559.0661595463338</v>
+        <v>371.5015668622677</v>
       </c>
       <c r="P5" t="n">
-        <v>477.1500327200613</v>
+        <v>317.0679923244292</v>
       </c>
       <c r="Q5" t="n">
-        <v>358.3198031720762</v>
+        <v>238.1048576151091</v>
       </c>
       <c r="R5" t="n">
-        <v>208.431955513958</v>
+        <v>138.5038187974682</v>
       </c>
       <c r="S5" t="n">
-        <v>75.61169579964292</v>
+        <v>50.24425639619219</v>
       </c>
       <c r="T5" t="n">
-        <v>14.52507727319525</v>
+        <v>9.651968507924574</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2654497274370346</v>
+        <v>0.17639234280616</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.77535156740465</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H6" t="n">
-        <v>17.14615855888175</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I6" t="n">
-        <v>61.12504300055484</v>
+        <v>40.61782109590848</v>
       </c>
       <c r="J6" t="n">
-        <v>167.7317899713314</v>
+        <v>111.4584056340082</v>
       </c>
       <c r="K6" t="n">
-        <v>286.680344987443</v>
+        <v>190.5001680621735</v>
       </c>
       <c r="L6" t="n">
-        <v>385.4771023875754</v>
+        <v>256.1509851405031</v>
       </c>
       <c r="M6" t="n">
-        <v>449.8335967059939</v>
+        <v>298.9161177975328</v>
       </c>
       <c r="N6" t="n">
-        <v>461.7393534891594</v>
+        <v>306.8275379829652</v>
       </c>
       <c r="O6" t="n">
-        <v>422.4013003377195</v>
+        <v>280.6872536292671</v>
       </c>
       <c r="P6" t="n">
-        <v>339.0142830774722</v>
+        <v>225.276266862887</v>
       </c>
       <c r="Q6" t="n">
-        <v>226.6220702532673</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R6" t="n">
-        <v>110.2275297727203</v>
+        <v>73.24660833550071</v>
       </c>
       <c r="S6" t="n">
-        <v>32.97637670157319</v>
+        <v>21.91292641288819</v>
       </c>
       <c r="T6" t="n">
-        <v>7.155912677389792</v>
+        <v>4.755130902820366</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1167994452239902</v>
+        <v>0.07761367088390157</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.488395116187677</v>
+        <v>0.9890441557445813</v>
       </c>
       <c r="H7" t="n">
-        <v>13.23318566937772</v>
+        <v>8.793501675620011</v>
       </c>
       <c r="I7" t="n">
-        <v>44.76010040317125</v>
+        <v>29.7432551563916</v>
       </c>
       <c r="J7" t="n">
-        <v>105.2295347144688</v>
+        <v>69.92542181114189</v>
       </c>
       <c r="K7" t="n">
-        <v>172.9244507716228</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L7" t="n">
-        <v>221.2837611830298</v>
+        <v>147.0438920276989</v>
       </c>
       <c r="M7" t="n">
-        <v>233.3126998947647</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N7" t="n">
-        <v>227.7650453707926</v>
+        <v>151.3507297604413</v>
       </c>
       <c r="O7" t="n">
-        <v>210.377884240782</v>
+        <v>139.7968957592432</v>
       </c>
       <c r="P7" t="n">
-        <v>180.0146238705532</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q7" t="n">
-        <v>124.6327946836791</v>
+        <v>82.81896107784854</v>
       </c>
       <c r="R7" t="n">
-        <v>66.92365676967501</v>
+        <v>44.47102176647907</v>
       </c>
       <c r="S7" t="n">
-        <v>25.93866761574342</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T7" t="n">
-        <v>6.359506405529165</v>
+        <v>4.225915938181392</v>
       </c>
       <c r="U7" t="n">
-        <v>0.08118518815569158</v>
+        <v>0.05394786304061359</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>541.5957615840425</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>602.6296390934777</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>493.5262741662297</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>370.6176784928394</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>78.20676087699489</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.2745602137206619</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>63.22291242095114</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>398.7070419616797</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>465.2723121730377</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>477.5866858152842</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>436.8985133884504</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>350.6495746475631</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>34.10815721053858</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>7.401510384057842</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>46.29630948017474</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>108.8411121001568</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>228.8784296368735</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>241.3202129282505</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>235.5821576420138</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>69.22054011153088</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>6.577770693978874</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32461,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563578</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,7 +32788,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
@@ -33023,7 +33025,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
@@ -33281,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33500,7 +33502,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138796</v>
@@ -33518,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33661,7 +33663,7 @@
         <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623207</v>
+        <v>691.3565293623197</v>
       </c>
       <c r="M35" t="n">
         <v>769.2673490574995</v>
@@ -33734,7 +33736,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
@@ -33752,7 +33754,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002924</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987487</v>
@@ -33992,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34147,7 +34149,7 @@
         <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.994981974641</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
         <v>473.099994678169</v>
@@ -34208,7 +34210,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34381,7 +34383,7 @@
         <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099054</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
         <v>629.9949819746414</v>
@@ -34448,7 +34450,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L45" t="n">
         <v>508.9565619138796</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538867967</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788321</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973019</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197545</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504113</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405811</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915973</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065964</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781461</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
         <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755145</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>175.485825899632</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848227</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855685</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.6094444076499</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,19 +34862,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>86.19340501175019</v>
+        <v>174.6339172880152</v>
       </c>
       <c r="M4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="N4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="O4" t="n">
-        <v>164.3820236732829</v>
+        <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>116.8989542469472</v>
+        <v>28.45844197068212</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>100.5755180240517</v>
+        <v>6.092590538867938</v>
       </c>
       <c r="K5" t="n">
-        <v>201.9876585358785</v>
+        <v>60.38224240788315</v>
       </c>
       <c r="L5" t="n">
-        <v>287.8580583115112</v>
+        <v>112.1840179973018</v>
       </c>
       <c r="M5" t="n">
-        <v>352.2868849330803</v>
+        <v>156.8156663197544</v>
       </c>
       <c r="N5" t="n">
-        <v>362.6476675397681</v>
+        <v>164.0135202504113</v>
       </c>
       <c r="O5" t="n">
-        <v>328.967948124647</v>
+        <v>141.403355440581</v>
       </c>
       <c r="P5" t="n">
-        <v>245.9170369647918</v>
+        <v>85.83499656915967</v>
       </c>
       <c r="Q5" t="n">
-        <v>136.0141132976267</v>
+        <v>15.79916774065958</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>136.3758925644497</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>413.3041430256626</v>
+        <v>52.65872908781455</v>
       </c>
       <c r="L6" t="n">
-        <v>246.9227226077012</v>
+        <v>117.5966053606289</v>
       </c>
       <c r="M6" t="n">
-        <v>307.6995627839756</v>
+        <v>156.7820838755144</v>
       </c>
       <c r="N6" t="n">
-        <v>330.3976414058261</v>
+        <v>175.4858258996319</v>
       </c>
       <c r="O6" t="n">
-        <v>279.805055893275</v>
+        <v>138.0910091848227</v>
       </c>
       <c r="P6" t="n">
-        <v>205.0398756631419</v>
+        <v>91.3018594485568</v>
       </c>
       <c r="Q6" t="n">
-        <v>86.64029616724574</v>
+        <v>10.60944440764987</v>
       </c>
       <c r="R6" t="n">
-        <v>10.0696956200772</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.87035459779601</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>150.65495894574</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>248.8737864433459</v>
+        <v>174.6339172880151</v>
       </c>
       <c r="M7" t="n">
-        <v>272.8965768566053</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="N7" t="n">
-        <v>271.8972177500212</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="O7" t="n">
-        <v>234.9630121548216</v>
+        <v>164.3820236732829</v>
       </c>
       <c r="P7" t="n">
-        <v>177.2931831354467</v>
+        <v>28.45844197068189</v>
       </c>
       <c r="Q7" t="n">
-        <v>38.47075143198467</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>110.2410322142394</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>216.4737587808905</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>305.8293466140553</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>372.283405866205</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>262.2932784109601</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>172.7419126813483</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>214.9526521472067</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>323.1382782510194</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P9" t="n">
-        <v>490.1260733652765</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>304.4954681847781</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977092</v>
+        <v>13.85280893410649</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>15.48193198348407</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>156.5898900231597</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>256.4684548971896</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>280.9040898900911</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>279.7143300212424</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>242.1833805735793</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>183.4714556748827</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>42.7482670934959</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35580,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222572</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597693</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597693</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
@@ -36929,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,7 +37150,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340054</v>
@@ -37166,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37309,7 +37311,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923334</v>
+        <v>455.5901143923325</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302268</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597691</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
@@ -37400,7 +37402,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859622</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
         <v>159.2338966127272</v>
@@ -37640,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37795,7 +37797,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
         <v>250.7943048037195</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597692</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -38029,7 +38031,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882187</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
         <v>398.7619862193719</v>
@@ -38096,7 +38098,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L45" t="n">
         <v>370.4021821340054</v>
